--- a/data/2018_Silverman_et_al-isotope_data.xlsx
+++ b/data/2018_Silverman_et_al-isotope_data.xlsx
@@ -398,10 +398,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.08082150021016</v>
+        <v>-1.11959252454608</v>
       </c>
       <c r="E2" t="n">
-        <v>0.084195259341794</v>
+        <v>0.124681531161789</v>
       </c>
       <c r="F2" t="n">
         <v>0.3</v>
@@ -418,10 +418,10 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.06534876904785</v>
+        <v>-1.09885392870468</v>
       </c>
       <c r="E3" t="n">
-        <v>0.084195259341794</v>
+        <v>0.124681531161789</v>
       </c>
       <c r="F3" t="n">
         <v>0.3</v>
@@ -438,10 +438,10 @@
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.18928316666</v>
+        <v>-1.21451658478844</v>
       </c>
       <c r="E4" t="n">
-        <v>0.084195259341794</v>
+        <v>0.124681531161789</v>
       </c>
       <c r="F4" t="n">
         <v>0.3</v>
@@ -458,10 +458,10 @@
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.16829104846483</v>
+        <v>-1.18533373722185</v>
       </c>
       <c r="E5" t="n">
-        <v>0.084195259341794</v>
+        <v>0.124681531161789</v>
       </c>
       <c r="F5" t="n">
         <v>0.3</v>
@@ -478,10 +478,10 @@
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.07026664650467</v>
+        <v>-1.06406957393257</v>
       </c>
       <c r="E6" t="n">
-        <v>0.084195259341794</v>
+        <v>0.124681531161789</v>
       </c>
       <c r="F6" t="n">
         <v>0.3</v>
@@ -498,10 +498,10 @@
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.42597641137621</v>
+        <v>-1.41067982463927</v>
       </c>
       <c r="E7" t="n">
-        <v>0.084195259341794</v>
+        <v>0.124681531161789</v>
       </c>
       <c r="F7" t="n">
         <v>0.3</v>
@@ -518,10 +518,10 @@
         <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.43556767896558</v>
+        <v>-1.41469986801901</v>
       </c>
       <c r="E8" t="n">
-        <v>0.084195259341794</v>
+        <v>0.124681531161789</v>
       </c>
       <c r="F8" t="n">
         <v>0.3</v>
@@ -538,10 +538,10 @@
         <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>-1.35482129572018</v>
+        <v>-1.32741357648292</v>
       </c>
       <c r="E9" t="n">
-        <v>0.084195259341794</v>
+        <v>0.124681531161789</v>
       </c>
       <c r="F9" t="n">
         <v>0.3</v>
@@ -558,10 +558,10 @@
         <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>-1.59565528331762</v>
+        <v>-1.54527704416407</v>
       </c>
       <c r="E10" t="n">
-        <v>0.084195259341794</v>
+        <v>0.124681531161789</v>
       </c>
       <c r="F10" t="n">
         <v>0.3</v>
@@ -578,10 +578,10 @@
         <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>-1.5574376129408</v>
+        <v>-1.50163549498883</v>
       </c>
       <c r="E11" t="n">
-        <v>0.084195259341794</v>
+        <v>0.124681531161789</v>
       </c>
       <c r="F11" t="n">
         <v>0.3</v>
@@ -598,10 +598,10 @@
         <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>-1.46294409721981</v>
+        <v>-1.40236857634035</v>
       </c>
       <c r="E12" t="n">
-        <v>0.084195259341794</v>
+        <v>0.124681531161789</v>
       </c>
       <c r="F12" t="n">
         <v>0.3</v>
@@ -618,10 +618,10 @@
         <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.48303036674247</v>
+        <v>-1.41255933465945</v>
       </c>
       <c r="E13" t="n">
-        <v>0.084195259341794</v>
+        <v>0.124681531161789</v>
       </c>
       <c r="F13" t="n">
         <v>0.3</v>
@@ -638,10 +638,10 @@
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>-1.70133013541962</v>
+        <v>-1.60945924546529</v>
       </c>
       <c r="E14" t="n">
-        <v>0.084195259341794</v>
+        <v>0.124681531161789</v>
       </c>
       <c r="F14" t="n">
         <v>0.3</v>
@@ -658,10 +658,10 @@
         <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>-1.70401350711025</v>
+        <v>-1.60827818722964</v>
       </c>
       <c r="E15" t="n">
-        <v>0.084195259341794</v>
+        <v>0.124681531161789</v>
       </c>
       <c r="F15" t="n">
         <v>0.3</v>
@@ -678,10 +678,10 @@
         <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>-1.69953267997047</v>
+        <v>-1.59673509488722</v>
       </c>
       <c r="E16" t="n">
-        <v>0.084195259341794</v>
+        <v>0.124681531161789</v>
       </c>
       <c r="F16" t="n">
         <v>0.3</v>
@@ -698,10 +698,10 @@
         <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>-1.76528548284671</v>
+        <v>-1.65624235304851</v>
       </c>
       <c r="E17" t="n">
-        <v>0.084195259341794</v>
+        <v>0.124681531161789</v>
       </c>
       <c r="F17" t="n">
         <v>0.3</v>
@@ -718,10 +718,10 @@
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>-1.46570281649194</v>
+        <v>-1.46535167676942</v>
       </c>
       <c r="E18" t="n">
-        <v>0.084195259341794</v>
+        <v>0.124681531161789</v>
       </c>
       <c r="F18" t="n">
         <v>0.3</v>
@@ -738,10 +738,10 @@
         <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>-1.46848291000523</v>
+        <v>-1.46918836733134</v>
       </c>
       <c r="E19" t="n">
-        <v>0.084195259341794</v>
+        <v>0.124681531161789</v>
       </c>
       <c r="F19" t="n">
         <v>0.3</v>
@@ -758,10 +758,10 @@
         <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>-1.52117373891403</v>
+        <v>-1.52042277882014</v>
       </c>
       <c r="E20" t="n">
-        <v>0.084195259341794</v>
+        <v>0.124681531161789</v>
       </c>
       <c r="F20" t="n">
         <v>0.3</v>
@@ -778,10 +778,10 @@
         <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>-1.58957620091116</v>
+        <v>-1.58941654194888</v>
       </c>
       <c r="E21" t="n">
-        <v>0.084195259341794</v>
+        <v>0.124681531161789</v>
       </c>
       <c r="F21" t="n">
         <v>0.3</v>
@@ -798,10 +798,10 @@
         <v>3</v>
       </c>
       <c r="D22" t="n">
-        <v>-1.59735662024518</v>
+        <v>-1.59601169533397</v>
       </c>
       <c r="E22" t="n">
-        <v>0.084195259341794</v>
+        <v>0.124681531161789</v>
       </c>
       <c r="F22" t="n">
         <v>0.3</v>
@@ -818,10 +818,10 @@
         <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>-1.5515116401762</v>
+        <v>-1.55118418598355</v>
       </c>
       <c r="E23" t="n">
-        <v>0.084195259341794</v>
+        <v>0.124681531161789</v>
       </c>
       <c r="F23" t="n">
         <v>0.3</v>
@@ -838,10 +838,10 @@
         <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>-1.71042651250297</v>
+        <v>-1.71083939446592</v>
       </c>
       <c r="E24" t="n">
-        <v>0.084195259341794</v>
+        <v>0.124681531161789</v>
       </c>
       <c r="F24" t="n">
         <v>0.3</v>
@@ -858,10 +858,10 @@
         <v>3</v>
       </c>
       <c r="D25" t="n">
-        <v>-1.68041888911774</v>
+        <v>-1.67952650646475</v>
       </c>
       <c r="E25" t="n">
-        <v>0.084195259341794</v>
+        <v>0.124681531161789</v>
       </c>
       <c r="F25" t="n">
         <v>0.3</v>
@@ -878,10 +878,10 @@
         <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>-1.80778315682117</v>
+        <v>-1.80604592587918</v>
       </c>
       <c r="E26" t="n">
-        <v>0.084195259341794</v>
+        <v>0.124681531161789</v>
       </c>
       <c r="F26" t="n">
         <v>0.3</v>
@@ -898,10 +898,10 @@
         <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>-1.69736255830288</v>
+        <v>-1.69620028585105</v>
       </c>
       <c r="E27" t="n">
-        <v>0.084195259341794</v>
+        <v>0.124681531161789</v>
       </c>
       <c r="F27" t="n">
         <v>0.3</v>
@@ -918,10 +918,10 @@
         <v>3</v>
       </c>
       <c r="D28" t="n">
-        <v>-1.6943731443968</v>
+        <v>-1.69373857734667</v>
       </c>
       <c r="E28" t="n">
-        <v>0.084195259341794</v>
+        <v>0.124681531161789</v>
       </c>
       <c r="F28" t="n">
         <v>0.3</v>
